--- a/saved_file.xlsx
+++ b/saved_file.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,2414 +447,2414 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
         <v>91</v>
       </c>
-      <c r="C2">
-        <v>83</v>
-      </c>
       <c r="D2">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K2">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
+        <v>83</v>
+      </c>
+      <c r="B3">
         <v>91</v>
       </c>
-      <c r="B3">
-        <v>83</v>
-      </c>
       <c r="C3">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="K3">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D4">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>104</v>
+      </c>
+      <c r="I4">
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <v>157</v>
+      </c>
+      <c r="K4">
         <v>103</v>
-      </c>
-      <c r="E4">
-        <v>96</v>
-      </c>
-      <c r="F4">
-        <v>115</v>
-      </c>
-      <c r="G4">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="I4">
-        <v>104</v>
-      </c>
-      <c r="J4">
-        <v>144</v>
-      </c>
-      <c r="K4">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>104</v>
+      </c>
+      <c r="H5">
+        <v>144</v>
+      </c>
+      <c r="I5">
+        <v>157</v>
+      </c>
+      <c r="J5">
         <v>103</v>
       </c>
-      <c r="D5">
-        <v>96</v>
-      </c>
-      <c r="E5">
-        <v>115</v>
-      </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>104</v>
-      </c>
-      <c r="I5">
-        <v>144</v>
-      </c>
-      <c r="J5">
-        <v>157</v>
-      </c>
       <c r="K5">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>144</v>
+      </c>
+      <c r="H6">
+        <v>157</v>
+      </c>
+      <c r="I6">
         <v>103</v>
       </c>
-      <c r="C6">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>115</v>
-      </c>
-      <c r="E6">
-        <v>90</v>
-      </c>
-      <c r="F6">
-        <v>61</v>
-      </c>
-      <c r="G6">
-        <v>104</v>
-      </c>
-      <c r="H6">
-        <v>144</v>
-      </c>
-      <c r="I6">
-        <v>157</v>
-      </c>
       <c r="J6">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>104</v>
+      </c>
+      <c r="F7">
+        <v>144</v>
+      </c>
+      <c r="G7">
+        <v>157</v>
+      </c>
+      <c r="H7">
         <v>103</v>
       </c>
-      <c r="B7">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>115</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>61</v>
-      </c>
-      <c r="F7">
-        <v>104</v>
-      </c>
-      <c r="G7">
-        <v>144</v>
-      </c>
-      <c r="H7">
-        <v>157</v>
-      </c>
       <c r="I7">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K7">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F8">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G8">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="H8">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="I8">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K8">
-        <v>155</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E9">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F9">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="G9">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>53</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E10">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="F10">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H10">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I10">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="K10">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C11">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D11">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="E11">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G11">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H11">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="J11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K11">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B12">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C12">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="E12">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F12">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G12">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="I12">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J12">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K12">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B13">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E13">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F13">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G13">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="H13">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I13">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J13">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K13">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D14">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E14">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="F14">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="G14">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H14">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I14">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J14">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K14">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D15">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F15">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G15">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H15">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I15">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J15">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="K15">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C16">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="E16">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G16">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H16">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="I16">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="J16">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="K16">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D17">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F17">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G17">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="I17">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="J17">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K17">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C18">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D18">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E18">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G18">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="H18">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="I18">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J18">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="K18">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="B19">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C19">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D19">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F19">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G19">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="H19">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I19">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="J19">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="K19">
-        <v>124</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C20">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D20">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E20">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F20">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="G20">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H20">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="I20">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="J20">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="K20">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B21">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C21">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E21">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="F21">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G21">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="H21">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="I21">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J21">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K21">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C22">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D22">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="E22">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F22">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="G22">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="H22">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="I22">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J22">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="K22">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C23">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="D23">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E23">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F23">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="G23">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="H23">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I23">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="J23">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="K23">
-        <v>200</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B24">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C24">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D24">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E24">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F24">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="G24">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H24">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="I24">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="J24">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="K24">
-        <v>131</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B25">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C25">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D25">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E25">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F25">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G25">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="H25">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I25">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="J25">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K25">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B26">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C26">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="E26">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="G26">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H26">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="I26">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="J26">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K26">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B27">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="C27">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D27">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F27">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="I27">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J27">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K27">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="C28">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E28">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="G28">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="H28">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I28">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J28">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K28">
-        <v>199</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="B29">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D29">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="G29">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H29">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I29">
+        <v>199</v>
+      </c>
+      <c r="J29">
+        <v>139</v>
+      </c>
+      <c r="K29">
         <v>217</v>
-      </c>
-      <c r="J29">
-        <v>199</v>
-      </c>
-      <c r="K29">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C30">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D30">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="E30">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="F30">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G30">
+        <v>217</v>
+      </c>
+      <c r="H30">
+        <v>199</v>
+      </c>
+      <c r="I30">
+        <v>139</v>
+      </c>
+      <c r="J30">
+        <v>217</v>
+      </c>
+      <c r="K30">
         <v>211</v>
-      </c>
-      <c r="H30">
-        <v>217</v>
-      </c>
-      <c r="I30">
-        <v>199</v>
-      </c>
-      <c r="J30">
-        <v>139</v>
-      </c>
-      <c r="K30">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B31">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C31">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D31">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="E31">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F31">
+        <v>217</v>
+      </c>
+      <c r="G31">
+        <v>199</v>
+      </c>
+      <c r="H31">
+        <v>139</v>
+      </c>
+      <c r="I31">
+        <v>217</v>
+      </c>
+      <c r="J31">
         <v>211</v>
       </c>
-      <c r="G31">
-        <v>217</v>
-      </c>
-      <c r="H31">
-        <v>199</v>
-      </c>
-      <c r="I31">
-        <v>139</v>
-      </c>
-      <c r="J31">
-        <v>217</v>
-      </c>
       <c r="K31">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="D32">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E32">
+        <v>217</v>
+      </c>
+      <c r="F32">
+        <v>199</v>
+      </c>
+      <c r="G32">
+        <v>139</v>
+      </c>
+      <c r="H32">
+        <v>217</v>
+      </c>
+      <c r="I32">
         <v>211</v>
       </c>
-      <c r="F32">
-        <v>217</v>
-      </c>
-      <c r="G32">
-        <v>199</v>
-      </c>
-      <c r="H32">
-        <v>139</v>
-      </c>
-      <c r="I32">
-        <v>217</v>
-      </c>
       <c r="J32">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K32">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="B33">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="C33">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D33">
+        <v>217</v>
+      </c>
+      <c r="E33">
+        <v>199</v>
+      </c>
+      <c r="F33">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>217</v>
+      </c>
+      <c r="H33">
         <v>211</v>
       </c>
-      <c r="E33">
-        <v>217</v>
-      </c>
-      <c r="F33">
-        <v>199</v>
-      </c>
-      <c r="G33">
-        <v>139</v>
-      </c>
-      <c r="H33">
-        <v>217</v>
-      </c>
       <c r="I33">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J33">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K33">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="B34">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C34">
+        <v>217</v>
+      </c>
+      <c r="D34">
+        <v>199</v>
+      </c>
+      <c r="E34">
+        <v>139</v>
+      </c>
+      <c r="F34">
+        <v>217</v>
+      </c>
+      <c r="G34">
         <v>211</v>
       </c>
-      <c r="D34">
-        <v>217</v>
-      </c>
-      <c r="E34">
-        <v>199</v>
-      </c>
-      <c r="F34">
-        <v>139</v>
-      </c>
-      <c r="G34">
-        <v>217</v>
-      </c>
       <c r="H34">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I34">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J34">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="K34">
-        <v>141</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B35">
+        <v>217</v>
+      </c>
+      <c r="C35">
+        <v>199</v>
+      </c>
+      <c r="D35">
+        <v>139</v>
+      </c>
+      <c r="E35">
+        <v>217</v>
+      </c>
+      <c r="F35">
         <v>211</v>
       </c>
-      <c r="C35">
-        <v>217</v>
-      </c>
-      <c r="D35">
-        <v>199</v>
-      </c>
-      <c r="E35">
-        <v>139</v>
-      </c>
-      <c r="F35">
-        <v>217</v>
-      </c>
       <c r="G35">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H35">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I35">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="J35">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="K35">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
+        <v>217</v>
+      </c>
+      <c r="B36">
+        <v>199</v>
+      </c>
+      <c r="C36">
+        <v>139</v>
+      </c>
+      <c r="D36">
+        <v>217</v>
+      </c>
+      <c r="E36">
         <v>211</v>
       </c>
-      <c r="B36">
-        <v>217</v>
-      </c>
-      <c r="C36">
-        <v>199</v>
-      </c>
-      <c r="D36">
-        <v>139</v>
-      </c>
-      <c r="E36">
-        <v>217</v>
-      </c>
       <c r="F36">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H36">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="I36">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="J36">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
+        <v>199</v>
+      </c>
+      <c r="B37">
+        <v>139</v>
+      </c>
+      <c r="C37">
         <v>217</v>
       </c>
-      <c r="B37">
-        <v>199</v>
-      </c>
-      <c r="C37">
-        <v>139</v>
-      </c>
       <c r="D37">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E37">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F37">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G37">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="H37">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="I37">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J37">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K37">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="B38">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="C38">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D38">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E38">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F38">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="G38">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="H38">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I38">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="J38">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K38">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="B39">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C39">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D39">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E39">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="F39">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="G39">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H39">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I39">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J39">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="K39">
-        <v>142</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B40">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C40">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D40">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="E40">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="F40">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G40">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H40">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I40">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J40">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="K40">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B41">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C41">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="D41">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="E41">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F41">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H41">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="I41">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="J41">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K41">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B42">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C42">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="D42">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E42">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F42">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G42">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="H42">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I42">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J42">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K42">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="B43">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="C43">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F43">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G43">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="H43">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I43">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J43">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="K43">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="B44">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C44">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E44">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="F44">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="G44">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H44">
+        <v>196</v>
+      </c>
+      <c r="I44">
+        <v>169</v>
+      </c>
+      <c r="J44">
+        <v>102</v>
+      </c>
+      <c r="K44">
         <v>195</v>
-      </c>
-      <c r="I44">
-        <v>196</v>
-      </c>
-      <c r="J44">
-        <v>169</v>
-      </c>
-      <c r="K44">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D45">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="E45">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F45">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G45">
+        <v>196</v>
+      </c>
+      <c r="H45">
+        <v>169</v>
+      </c>
+      <c r="I45">
+        <v>102</v>
+      </c>
+      <c r="J45">
         <v>195</v>
       </c>
-      <c r="H45">
-        <v>196</v>
-      </c>
-      <c r="I45">
-        <v>169</v>
-      </c>
-      <c r="J45">
-        <v>102</v>
-      </c>
       <c r="K45">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C46">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D46">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="E46">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F46">
+        <v>196</v>
+      </c>
+      <c r="G46">
+        <v>169</v>
+      </c>
+      <c r="H46">
+        <v>102</v>
+      </c>
+      <c r="I46">
         <v>195</v>
       </c>
-      <c r="G46">
-        <v>196</v>
-      </c>
-      <c r="H46">
-        <v>169</v>
-      </c>
-      <c r="I46">
-        <v>102</v>
-      </c>
       <c r="J46">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K46">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B47">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C47">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="D47">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E47">
+        <v>196</v>
+      </c>
+      <c r="F47">
+        <v>169</v>
+      </c>
+      <c r="G47">
+        <v>102</v>
+      </c>
+      <c r="H47">
         <v>195</v>
       </c>
-      <c r="F47">
-        <v>196</v>
-      </c>
-      <c r="G47">
-        <v>169</v>
-      </c>
-      <c r="H47">
-        <v>102</v>
-      </c>
       <c r="I47">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J47">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K47">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B48">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C48">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D48">
+        <v>196</v>
+      </c>
+      <c r="E48">
+        <v>169</v>
+      </c>
+      <c r="F48">
+        <v>102</v>
+      </c>
+      <c r="G48">
         <v>195</v>
       </c>
-      <c r="E48">
-        <v>196</v>
-      </c>
-      <c r="F48">
-        <v>169</v>
-      </c>
-      <c r="G48">
-        <v>102</v>
-      </c>
       <c r="H48">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="I48">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J48">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K48">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="B49">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C49">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>169</v>
+      </c>
+      <c r="E49">
+        <v>102</v>
+      </c>
+      <c r="F49">
         <v>195</v>
       </c>
-      <c r="D49">
-        <v>196</v>
-      </c>
-      <c r="E49">
-        <v>169</v>
-      </c>
-      <c r="F49">
-        <v>102</v>
-      </c>
       <c r="G49">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H49">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I49">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J49">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="K49">
-        <v>111</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B50">
+        <v>196</v>
+      </c>
+      <c r="C50">
+        <v>169</v>
+      </c>
+      <c r="D50">
+        <v>102</v>
+      </c>
+      <c r="E50">
         <v>195</v>
       </c>
-      <c r="C50">
-        <v>196</v>
-      </c>
-      <c r="D50">
-        <v>169</v>
-      </c>
-      <c r="E50">
-        <v>102</v>
-      </c>
       <c r="F50">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G50">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H50">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I50">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="J50">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="K50">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
+        <v>196</v>
+      </c>
+      <c r="B51">
+        <v>169</v>
+      </c>
+      <c r="C51">
+        <v>102</v>
+      </c>
+      <c r="D51">
         <v>195</v>
       </c>
-      <c r="B51">
-        <v>196</v>
-      </c>
-      <c r="C51">
-        <v>169</v>
-      </c>
-      <c r="D51">
-        <v>102</v>
-      </c>
       <c r="E51">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F51">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G51">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H51">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="I51">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="J51">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K51">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B52">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="D52">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E52">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F52">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G52">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H52">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="I52">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J52">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K52">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="C53">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D53">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E53">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F53">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G53">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="H53">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I53">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J53">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K53">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B54">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C54">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D54">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E54">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="G54">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H54">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I54">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J54">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>119</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B55">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C55">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D55">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E55">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="F55">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G55">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H55">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="I55">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="J55">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="K55">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B56">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C56">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D56">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E56">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F56">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G56">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H56">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="I56">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="J56">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K56">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B57">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C57">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E57">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F57">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G57">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="H57">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="I57">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J57">
+        <v>176</v>
+      </c>
+      <c r="K57">
         <v>170</v>
-      </c>
-      <c r="K57">
-        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B58">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C58">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D58">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E58">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F58">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="G58">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="H58">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I58">
+        <v>176</v>
+      </c>
+      <c r="J58">
         <v>170</v>
       </c>
-      <c r="J58">
-        <v>176</v>
-      </c>
       <c r="K58">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="B59">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C59">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D59">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E59">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F59">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="G59">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H59">
+        <v>176</v>
+      </c>
+      <c r="I59">
         <v>170</v>
       </c>
-      <c r="I59">
-        <v>176</v>
-      </c>
       <c r="J59">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="K59">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B60">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C60">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D60">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="E60">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F60">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G60">
+        <v>176</v>
+      </c>
+      <c r="H60">
         <v>170</v>
       </c>
-      <c r="H60">
-        <v>176</v>
-      </c>
       <c r="I60">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="J60">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="K60">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B61">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C61">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D61">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E61">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F61">
+        <v>176</v>
+      </c>
+      <c r="G61">
         <v>170</v>
       </c>
-      <c r="G61">
-        <v>176</v>
-      </c>
       <c r="H61">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I61">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="J61">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K61">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B62">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C62">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D62">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E62">
+        <v>176</v>
+      </c>
+      <c r="F62">
         <v>170</v>
       </c>
-      <c r="F62">
-        <v>176</v>
-      </c>
       <c r="G62">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="H62">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="I62">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J62">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K62">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="B63">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C63">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D63">
+        <v>176</v>
+      </c>
+      <c r="E63">
         <v>170</v>
       </c>
-      <c r="E63">
-        <v>176</v>
-      </c>
       <c r="F63">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="G63">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H63">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I63">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J63">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K63">
-        <v>166</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B64">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C64">
+        <v>176</v>
+      </c>
+      <c r="D64">
         <v>170</v>
       </c>
-      <c r="D64">
-        <v>176</v>
-      </c>
       <c r="E64">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F64">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G64">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H64">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I64">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J64">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B65">
+        <v>176</v>
+      </c>
+      <c r="C65">
         <v>170</v>
       </c>
-      <c r="C65">
-        <v>176</v>
-      </c>
       <c r="D65">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E65">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="F65">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G65">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H65">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I65">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="J65">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="K65">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
+        <v>176</v>
+      </c>
+      <c r="B66">
         <v>170</v>
       </c>
-      <c r="B66">
-        <v>176</v>
-      </c>
       <c r="C66">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D66">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E66">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F66">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G66">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H66">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="I66">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="J66">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="K66">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B67">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C67">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D67">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E67">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F67">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G67">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="H67">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="I67">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="J67">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K67">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B68">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C68">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D68">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E68">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F68">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="G68">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="I68">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J68">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K68">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B69">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C69">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D69">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E69">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="F69">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G69">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H69">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I69">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J69">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B70">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C70">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D70">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E70">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="F70">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G70">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H70">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="I70">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="J70">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K70">
         <v>165</v>
@@ -2862,31 +2862,31 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B71">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C71">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="D71">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="E71">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F71">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G71">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H71">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="I71">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="J71">
         <v>165</v>
@@ -2897,28 +2897,28 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B72">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="C72">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D72">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="E72">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F72">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G72">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="H72">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="I72">
         <v>165</v>
@@ -2927,30 +2927,30 @@
         <v>165</v>
       </c>
       <c r="K72">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C73">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D73">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E73">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F73">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="G73">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H73">
         <v>165</v>
@@ -2959,30 +2959,30 @@
         <v>165</v>
       </c>
       <c r="J73">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K73">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B74">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C74">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D74">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E74">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F74">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="G74">
         <v>165</v>
@@ -2991,30 +2991,30 @@
         <v>165</v>
       </c>
       <c r="I74">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J74">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="K74">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B75">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C75">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D75">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E75">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="F75">
         <v>165</v>
@@ -3023,30 +3023,30 @@
         <v>165</v>
       </c>
       <c r="H75">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I75">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="J75">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="K75">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B76">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C76">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D76">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="E76">
         <v>165</v>
@@ -3055,30 +3055,30 @@
         <v>165</v>
       </c>
       <c r="G76">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H76">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I76">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="J76">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K76">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B77">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C77">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D77">
         <v>165</v>
@@ -3087,30 +3087,30 @@
         <v>165</v>
       </c>
       <c r="F77">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G77">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="H77">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I77">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J77">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K77">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B78">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C78">
         <v>165</v>
@@ -3119,30 +3119,30 @@
         <v>165</v>
       </c>
       <c r="E78">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F78">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="G78">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="H78">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I78">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J78">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K78">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B79">
         <v>165</v>
@@ -3151,28 +3151,28 @@
         <v>165</v>
       </c>
       <c r="D79">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E79">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F79">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="G79">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H79">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I79">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J79">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="K79">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3183,31 +3183,31 @@
         <v>165</v>
       </c>
       <c r="C80">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D80">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="E80">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F80">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G80">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H80">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I80">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="J80">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="K80">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3215,1434 +3215,1329 @@
         <v>165</v>
       </c>
       <c r="B81">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C81">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D81">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E81">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F81">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G81">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H81">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I81">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="J81">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="K81">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B82">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C82">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="D82">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E82">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F82">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G82">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="H82">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="I82">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J82">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K82">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B83">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C83">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D83">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E83">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F83">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G83">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="H83">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="I83">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J83">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K83">
-        <v>174</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B84">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C84">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D84">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E84">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F84">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="G84">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H84">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I84">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J84">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B85">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C85">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D85">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E85">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F85">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G85">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H85">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I85">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="J85">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="K85">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B86">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C86">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D86">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E86">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F86">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G86">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H86">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="I86">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="J86">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="K86">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B87">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C87">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D87">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E87">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F87">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G87">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="H87">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="I87">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="J87">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K87">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B88">
+        <v>156</v>
+      </c>
+      <c r="C88">
+        <v>180</v>
+      </c>
+      <c r="D88">
+        <v>185</v>
+      </c>
+      <c r="E88">
+        <v>174</v>
+      </c>
+      <c r="F88">
+        <v>101</v>
+      </c>
+      <c r="G88">
+        <v>184</v>
+      </c>
+      <c r="H88">
+        <v>160</v>
+      </c>
+      <c r="I88">
+        <v>171</v>
+      </c>
+      <c r="J88">
+        <v>181</v>
+      </c>
+      <c r="K88">
         <v>117</v>
-      </c>
-      <c r="C88">
-        <v>156</v>
-      </c>
-      <c r="D88">
-        <v>180</v>
-      </c>
-      <c r="E88">
-        <v>185</v>
-      </c>
-      <c r="F88">
-        <v>174</v>
-      </c>
-      <c r="G88">
-        <v>101</v>
-      </c>
-      <c r="H88">
-        <v>184</v>
-      </c>
-      <c r="I88">
-        <v>160</v>
-      </c>
-      <c r="J88">
-        <v>171</v>
-      </c>
-      <c r="K88">
-        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
+        <v>156</v>
+      </c>
+      <c r="B89">
+        <v>180</v>
+      </c>
+      <c r="C89">
+        <v>185</v>
+      </c>
+      <c r="D89">
+        <v>174</v>
+      </c>
+      <c r="E89">
+        <v>101</v>
+      </c>
+      <c r="F89">
+        <v>184</v>
+      </c>
+      <c r="G89">
+        <v>160</v>
+      </c>
+      <c r="H89">
+        <v>171</v>
+      </c>
+      <c r="I89">
+        <v>181</v>
+      </c>
+      <c r="J89">
         <v>117</v>
       </c>
-      <c r="B89">
-        <v>156</v>
-      </c>
-      <c r="C89">
-        <v>180</v>
-      </c>
-      <c r="D89">
-        <v>185</v>
-      </c>
-      <c r="E89">
-        <v>174</v>
-      </c>
-      <c r="F89">
-        <v>101</v>
-      </c>
-      <c r="G89">
-        <v>184</v>
-      </c>
-      <c r="H89">
-        <v>160</v>
-      </c>
-      <c r="I89">
-        <v>171</v>
-      </c>
-      <c r="J89">
-        <v>181</v>
-      </c>
       <c r="K89">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B90">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C90">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D90">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E90">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F90">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G90">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H90">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I90">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="J90">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="K90">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B91">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C91">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D91">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="E91">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F91">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G91">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H91">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="I91">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="J91">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K91">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B92">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C92">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="D92">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E92">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F92">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G92">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="H92">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="I92">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J92">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K92">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="C93">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D93">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E93">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F93">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="G93">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="H93">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I93">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J93">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K93">
-        <v>178</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="B94">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C94">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D94">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E94">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="F94">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="G94">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H94">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I94">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="J94">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="K94">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B95">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C95">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D95">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E95">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="F95">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G95">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H95">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I95">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="J95">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K95">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B96">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C96">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D96">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="E96">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F96">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G96">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H96">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="I96">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J96">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K96">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B97">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C97">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D97">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E97">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F97">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G97">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="H97">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I97">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J97">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K97">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B98">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C98">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D98">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E98">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F98">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="G98">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H98">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I98">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J98">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="K98">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B99">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C99">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D99">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E99">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F99">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G99">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H99">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I99">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="J99">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="K99">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B100">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C100">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D100">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="E100">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F100">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G100">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H100">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="I100">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="J100">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="K100">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B101">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C101">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="D101">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E101">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F101">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G101">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H101">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="I101">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="J101">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K101">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B102">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C102">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D102">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E102">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F102">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G102">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="H102">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I102">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J102">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K102">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B103">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C103">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D103">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E103">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F103">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G103">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H103">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I103">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J103">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K103">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B104">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C104">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D104">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E104">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="F104">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G104">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H104">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I104">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J104">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="K104">
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B105">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C105">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D105">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="E105">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F105">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G105">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H105">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I105">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="J105">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="K105">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B106">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C106">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="D106">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E106">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F106">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G106">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H106">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="I106">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="J106">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K106">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B107">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C107">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D107">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E107">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F107">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G107">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H107">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="I107">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="J107">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K107">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B108">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C108">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D108">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E108">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F108">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="G108">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="H108">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I108">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J108">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K108">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B109">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C109">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D109">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E109">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F109">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="G109">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="H109">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I109">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J109">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="K109">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C110">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D110">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E110">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F110">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G110">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H110">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I110">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="J110">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="K110">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B111">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C111">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D111">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="E111">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F111">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G111">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H111">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="I111">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="J111">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="K111">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B112">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C112">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D112">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E112">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F112">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G112">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="H112">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I112">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="J112">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K112">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B113">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C113">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D113">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E113">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F113">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G113">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="H113">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="I113">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="J113">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="B114">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C114">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D114">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E114">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="F114">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G114">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="H114">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I114">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J114">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K114">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B115">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C115">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D115">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E115">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F115">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G115">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H115">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I115">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="J115">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="K115">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B116">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C116">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D116">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E116">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F116">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G116">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H116">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="I116">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="J116">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K116">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
+        <v>136</v>
+      </c>
+      <c r="B117">
+        <v>87</v>
+      </c>
+      <c r="C117">
+        <v>118</v>
+      </c>
+      <c r="D117">
+        <v>151</v>
+      </c>
+      <c r="E117">
+        <v>132</v>
+      </c>
+      <c r="F117">
+        <v>130</v>
+      </c>
+      <c r="G117">
+        <v>107</v>
+      </c>
+      <c r="H117">
+        <v>138</v>
+      </c>
+      <c r="I117">
+        <v>157</v>
+      </c>
+      <c r="J117">
+        <v>142</v>
+      </c>
+      <c r="K117">
         <v>133</v>
-      </c>
-      <c r="B117">
-        <v>136</v>
-      </c>
-      <c r="C117">
-        <v>87</v>
-      </c>
-      <c r="D117">
-        <v>118</v>
-      </c>
-      <c r="E117">
-        <v>151</v>
-      </c>
-      <c r="F117">
-        <v>132</v>
-      </c>
-      <c r="G117">
-        <v>130</v>
-      </c>
-      <c r="H117">
-        <v>107</v>
-      </c>
-      <c r="I117">
-        <v>138</v>
-      </c>
-      <c r="J117">
-        <v>157</v>
-      </c>
-      <c r="K117">
-        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B118">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C118">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D118">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E118">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F118">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G118">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H118">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I118">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J118">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K118">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>87</v>
-      </c>
-      <c r="B119">
-        <v>118</v>
-      </c>
-      <c r="C119">
-        <v>151</v>
-      </c>
-      <c r="D119">
-        <v>132</v>
-      </c>
-      <c r="E119">
-        <v>130</v>
-      </c>
-      <c r="F119">
-        <v>107</v>
-      </c>
-      <c r="G119">
-        <v>138</v>
-      </c>
-      <c r="H119">
-        <v>157</v>
-      </c>
-      <c r="I119">
-        <v>142</v>
-      </c>
-      <c r="J119">
-        <v>133</v>
-      </c>
-      <c r="K119">
         <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>151</v>
-      </c>
-      <c r="C120">
-        <v>132</v>
-      </c>
-      <c r="D120">
-        <v>130</v>
-      </c>
-      <c r="E120">
-        <v>107</v>
-      </c>
-      <c r="F120">
-        <v>138</v>
-      </c>
-      <c r="G120">
-        <v>157</v>
-      </c>
-      <c r="H120">
-        <v>142</v>
-      </c>
-      <c r="I120">
-        <v>133</v>
-      </c>
-      <c r="J120">
-        <v>93</v>
-      </c>
-      <c r="K120">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>151</v>
-      </c>
-      <c r="B121">
-        <v>132</v>
-      </c>
-      <c r="C121">
-        <v>130</v>
-      </c>
-      <c r="D121">
-        <v>107</v>
-      </c>
-      <c r="E121">
-        <v>138</v>
-      </c>
-      <c r="F121">
-        <v>157</v>
-      </c>
-      <c r="G121">
-        <v>142</v>
-      </c>
-      <c r="H121">
-        <v>133</v>
-      </c>
-      <c r="I121">
-        <v>93</v>
-      </c>
-      <c r="J121">
-        <v>135</v>
-      </c>
-      <c r="K121">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
